--- a/Data/aearep-684/candidatepackages.xlsx
+++ b/Data/aearep-684/candidatepackages.xlsx
@@ -145,7 +145,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -157,10 +157,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>565</v>
+        <v>499</v>
       </c>
       <c r="C3">
-        <v>0.18733422458171844</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D3"/>
     </row>
@@ -169,10 +169,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1133</v>
+        <v>955</v>
       </c>
       <c r="C4">
-        <v>0.37566313147544861</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D4"/>
     </row>
@@ -181,10 +181,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1476</v>
+        <v>1368</v>
       </c>
       <c r="C5">
-        <v>0.48938992619514465</v>
+        <v>0.45223140716552734</v>
       </c>
       <c r="D5"/>
     </row>
@@ -193,10 +193,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1745</v>
+        <v>1937</v>
       </c>
       <c r="C6">
-        <v>0.57858091592788696</v>
+        <v>0.64033055305480957</v>
       </c>
       <c r="D6"/>
     </row>
@@ -205,10 +205,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2175</v>
+        <v>2225</v>
       </c>
       <c r="C7">
-        <v>0.7211538553237915</v>
+        <v>0.73553717136383057</v>
       </c>
       <c r="D7"/>
     </row>
@@ -217,10 +217,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2424</v>
+        <v>2436</v>
       </c>
       <c r="C8">
-        <v>0.80371350049972534</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D8"/>
     </row>
